--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9528F7-BD23-4389-9802-9731D5E48DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -159,14 +156,29 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Colegi</t>
+  </si>
+  <si>
+    <t>API-ANIMALS</t>
+  </si>
+  <si>
+    <t>API-ANIMALS-PERFORMER</t>
+  </si>
+  <si>
+    <t>Paths</t>
+  </si>
+  <si>
+    <t>OutputReportFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Desktop\API Output Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +197,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -211,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,6 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,16 +557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -585,34 +605,36 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1619,16 +1641,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1687,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1673,18 +1695,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1752,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,60 +1774,71 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2775,6 +2808,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2786,12 +2820,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2802,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9528F7-BD23-4389-9802-9731D5E48DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2D4B6-3CA3-42D7-8E0B-568123B90728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,51 @@
   </si>
   <si>
     <t>C:\Users\AlexandruRotar\Desktop\API Output Report</t>
+  </si>
+  <si>
+    <t>listOfAnimals</t>
+  </si>
+  <si>
+    <t>cat;dog</t>
+  </si>
+  <si>
+    <t>listOfAcceptedSenders</t>
+  </si>
+  <si>
+    <t>patricia.ciortin@fwfcompany.com;calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com </t>
+  </si>
+  <si>
+    <t>PathOfAttachment</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Desktop\API Output Report\OutputReport</t>
+  </si>
+  <si>
+    <t>OutputReportPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dog.ceo/api/breeds/image/random </t>
+  </si>
+  <si>
+    <t>dogsAPIURL</t>
+  </si>
+  <si>
+    <t>https://api.thecatapi.com/v1/images/search</t>
+  </si>
+  <si>
+    <t>catsAPIURL</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\Temp\cat</t>
+  </si>
+  <si>
+    <t>catsPath</t>
+  </si>
+  <si>
+    <t>dogsPath</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\Temp\dog</t>
   </si>
 </sst>
 </file>
@@ -230,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -241,6 +286,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -643,10 +689,38 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1641,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1839,8 +1913,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2816,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2864,8 +2949,31 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3866,5 +3974,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2D4B6-3CA3-42D7-8E0B-568123B90728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C6AF0-304A-46C0-BB55-03CB03419D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\Temp\dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWFformat </t>
+  </si>
+  <si>
+    <t>fwfcompany.com</t>
+  </si>
+  <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>Buna</t>
+  </si>
+  <si>
+    <t>MailBody</t>
+  </si>
+  <si>
+    <t>Priveste!</t>
   </si>
 </sst>
 </file>
@@ -603,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -721,23 +739,41 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1716,7 +1752,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1927,7 +1963,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2901,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C6AF0-304A-46C0-BB55-03CB03419D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C79AF8-761F-47D3-A80C-E6B18D9D95B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -180,18 +180,9 @@
     <t>cat;dog</t>
   </si>
   <si>
-    <t>listOfAcceptedSenders</t>
-  </si>
-  <si>
-    <t>patricia.ciortin@fwfcompany.com;calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com </t>
-  </si>
-  <si>
     <t>PathOfAttachment</t>
   </si>
   <si>
-    <t>C:\Users\AlexandruRotar\Desktop\API Output Report\OutputReport</t>
-  </si>
-  <si>
     <t>OutputReportPath</t>
   </si>
   <si>
@@ -228,13 +219,53 @@
     <t>MailSubject</t>
   </si>
   <si>
-    <t>Buna</t>
-  </si>
-  <si>
     <t>MailBody</t>
   </si>
   <si>
-    <t>Priveste!</t>
+    <t>Data\Temp</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Desktop\API Output Report\</t>
+  </si>
+  <si>
+    <t>SuccessMessage</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>mailToOutputReport</t>
+  </si>
+  <si>
+    <t>alexandru.rotar@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>mailCC</t>
+  </si>
+  <si>
+    <t>OutputReportMail</t>
+  </si>
+  <si>
+    <t>MailSubjectOutputReport</t>
+  </si>
+  <si>
+    <t>MailBodyOutputReport</t>
+  </si>
+  <si>
+    <t>AnimalMail</t>
+  </si>
+  <si>
+    <t>Uite un animalut dragut</t>
+  </si>
+  <si>
+    <t>Buna dimineata la cafelusa si multumesc pentru accept.</t>
+  </si>
+  <si>
+    <t>Output Report</t>
+  </si>
+  <si>
+    <t>Buna, 
+Atasez Output Report-ul:</t>
   </si>
 </sst>
 </file>
@@ -621,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -709,34 +740,34 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -744,30 +775,58 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1752,7 +1811,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1951,29 +2010,34 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B29" s="5"/>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2944,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3007,17 +3071,33 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
+      <c r="D3" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C79AF8-761F-47D3-A80C-E6B18D9D95B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA798039-EBC7-480F-B527-CEE4262E4E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2145" windowWidth="18030" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -237,9 +237,6 @@
     <t>mailToOutputReport</t>
   </si>
   <si>
-    <t>alexandru.rotar@fwfcompany.com</t>
-  </si>
-  <si>
     <t>mailCC</t>
   </si>
   <si>
@@ -266,6 +263,24 @@
   <si>
     <t>Buna, 
 Atasez Output Report-ul:</t>
+  </si>
+  <si>
+    <t>InfoMessages</t>
+  </si>
+  <si>
+    <t>TempFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruRotar\Documents\GitHub\API-ANIMALS-PERFORMER\Data\Temp</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>patricia.ciortin@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>patricia.ciortin@fwfcompany.com;calin.gandila@fwfcompany.com;diana.sacacian@fwfcompany.com;tudor.cimpean@fwfcompany.com</t>
   </si>
 </sst>
 </file>
@@ -652,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -737,7 +752,11 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>54</v>
@@ -771,84 +790,114 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
+      <c r="B21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B23" s="5" t="s">
-        <v>72</v>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>78</v>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1810,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1996,43 +2045,10 @@
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -3008,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3081,21 +3097,21 @@
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
